--- a/docs/画面項目定義書/virtual_machine_deteil_edit.xlsx
+++ b/docs/画面項目定義書/virtual_machine_deteil_edit.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF411E4B-5978-4C4C-A1F6-A050174E55A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE17BA1-56BB-40F5-A4E9-4DCE7D739D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="3150" yWindow="2220" windowWidth="21600" windowHeight="11295" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="仮想マシン詳細編集画面" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
   <si>
     <t>日本工学院</t>
   </si>
@@ -67,23 +66,6 @@
   </si>
   <si>
     <t>処理</t>
-  </si>
-  <si>
-    <t>仮想マシン詳細/編集画面</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>ヘンシュウガメン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>virtual_machine_edit.html</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ページタイトル</t>
@@ -595,6 +577,47 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>virtual_machine_detail_edit</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>virtual_machine_detail_edit.html</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>押下時、セキュリティグループを追加</t>
+    <rPh sb="0" eb="3">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>押下時、ストレージを追加</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>押下時、NICを追加</t>
+    <rPh sb="0" eb="3">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1565,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1632,11 +1655,11 @@
     </row>
     <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="40" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="15" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="26"/>
@@ -1678,12 +1701,12 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="22"/>
       <c r="E9" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
@@ -1691,14 +1714,14 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="36"/>
@@ -1706,29 +1729,29 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="22"/>
       <c r="E12" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="36"/>
@@ -1736,65 +1759,65 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="36"/>
@@ -1802,148 +1825,150 @@
     <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="B19" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
       <c r="B20" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
       <c r="B21" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
       <c r="B22" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
       <c r="B23" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F23" s="32"/>
-      <c r="G23" s="36"/>
+      <c r="G23" s="36" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="6"/>
       <c r="B25" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
@@ -1951,14 +1976,14 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6"/>
       <c r="B26" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
@@ -1966,168 +1991,172 @@
     <row r="27" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A27" s="6"/>
       <c r="B27" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6"/>
       <c r="B28" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6"/>
       <c r="B29" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
       <c r="B30" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="6"/>
       <c r="B31" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="6"/>
       <c r="B32" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F32" s="32"/>
-      <c r="G32" s="36"/>
+      <c r="G32" s="36" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="6"/>
       <c r="B36" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F36" s="32"/>
-      <c r="G36" s="36"/>
+      <c r="G36" s="36" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="6"/>
